--- a/TestExampleExecl/testcase_data.xlsx
+++ b/TestExampleExecl/testcase_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21228" windowHeight="5915"/>
+    <workbookView windowWidth="27948" windowHeight="14375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>用例id</t>
   </si>
@@ -203,25 +203,153 @@
   </si>
   <si>
     <t>分支合并成功</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>经办人</t>
+  </si>
+  <si>
+    <t>报告人</t>
+  </si>
+  <si>
+    <t>缺陷责任人</t>
+  </si>
+  <si>
+    <t>所属迭代</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>所属父事项</t>
+  </si>
+  <si>
+    <t>EED-D-811386</t>
+  </si>
+  <si>
+    <t>【推送设置】特殊分支名称问题汇总</t>
+  </si>
+  <si>
+    <t>创建</t>
+  </si>
+  <si>
+    <t>陈泽州(za-chenzezhou@zhongan.com)</t>
+  </si>
+  <si>
+    <t>颜行(wb-yanxing@zhongan.io)</t>
+  </si>
+  <si>
+    <t>CUBE8.24.0Dec02</t>
+  </si>
+  <si>
+    <t>2024-12-31 18:01:13</t>
+  </si>
+  <si>
+    <t>EED-PR-758762 【代码管理二期】推送设置_Story_杨孜薇</t>
+  </si>
+  <si>
+    <t>EED-D-810040</t>
+  </si>
+  <si>
+    <t>【推送设置】分支白名单匹配规则优化</t>
+  </si>
+  <si>
+    <t>2024-12-24 11:17:06</t>
+  </si>
+  <si>
+    <t>EED-D-809427</t>
+  </si>
+  <si>
+    <t>【基线】包含可跳过节点的流水线进行失败重试时，流水线的流程配置中可跳过的节点不可选中</t>
+  </si>
+  <si>
+    <t>CUBE9.0.0Jan01</t>
+  </si>
+  <si>
+    <t>2024-12-19 16:11:10</t>
+  </si>
+  <si>
+    <t>EED-PR-811414 【基线】缺陷跟踪</t>
+  </si>
+  <si>
+    <t>EED-D-809236</t>
+  </si>
+  <si>
+    <t>【推送设置】以创建新分支上传文件的逻辑优化</t>
+  </si>
+  <si>
+    <t>2024-12-18 18:52:19</t>
+  </si>
+  <si>
+    <t>EED-D-775330</t>
+  </si>
+  <si>
+    <t>【资源管理】【亚太财】K8s浏览器binding报错</t>
+  </si>
+  <si>
+    <t>费腾(feiteng@zhongan.tech)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2024-11-29 18:57:14</t>
+  </si>
+  <si>
+    <t>EED-PR-742155 【亚太财】生产环境更新_Story_杨孜薇</t>
+  </si>
+  <si>
+    <t>EED-D-725048</t>
+  </si>
+  <si>
+    <t>【代码管理】【亚太财】收藏仓库后收藏图标没有点亮</t>
+  </si>
+  <si>
+    <t>修复中</t>
+  </si>
+  <si>
+    <t>2024-08-30 17:11:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -368,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +505,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -562,12 +696,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -688,140 +837,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1135,7 +1292,7 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1425,14 +1582,236 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="18.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="34.8" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="EED-D-811386"/>
+    <hyperlink ref="A3" r:id="rId2" display="EED-D-810040"/>
+    <hyperlink ref="A4" r:id="rId3" display="EED-D-809427"/>
+    <hyperlink ref="A5" r:id="rId4" display="EED-D-809236"/>
+    <hyperlink ref="A6" r:id="rId5" display="EED-D-775330"/>
+    <hyperlink ref="A7" r:id="rId6" display="EED-D-725048"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
